--- a/xlsx/country_comparison/convergence_support_positive.xlsx
+++ b/xlsx/country_comparison/convergence_support_positive.xlsx
@@ -421,34 +421,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.677492395231178</v>
+        <v>0.623564637478219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.648374794450226</v>
+        <v>0.651958439708122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.821917091482802</v>
+        <v>0.797549708070867</v>
       </c>
       <c r="E2" t="n">
-        <v>0.46974697469747</v>
+        <v>0.570292456405401</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6637738455824</v>
+        <v>0.794561962882716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.802691005204611</v>
+        <v>0.760545223833252</v>
       </c>
       <c r="H2" t="n">
-        <v>0.656808518403526</v>
+        <v>0.701725506855341</v>
       </c>
       <c r="I2" t="n">
-        <v>0.59146538457509</v>
+        <v>0.524968202317679</v>
       </c>
       <c r="J2" t="n">
-        <v>0.529680342219767</v>
+        <v>0.56484334760391</v>
       </c>
       <c r="K2" t="n">
-        <v>0.512767968677875</v>
+        <v>0.455866286331278</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_positive.xlsx
+++ b/xlsx/country_comparison/convergence_support_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,30 +32,29 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to
-have all countries converge in terms of
-GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
 </sst>
 </file>
@@ -415,40 +420,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.623564637478219</v>
+        <v>0.582407081968796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.651958439708122</v>
+        <v>0.667387097439935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.797549708070867</v>
+        <v>0.614098661535645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.570292456405401</v>
+        <v>0.64464289886157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.794561962882716</v>
+        <v>0.779832428853336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.760545223833252</v>
+        <v>0.772095613966801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.701725506855341</v>
+        <v>0.727223696648626</v>
       </c>
       <c r="I2" t="n">
-        <v>0.524968202317679</v>
+        <v>0.555343076482827</v>
       </c>
       <c r="J2" t="n">
-        <v>0.56484334760391</v>
+        <v>0.562356534000552</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455866286331278</v>
+        <v>0.570328202556126</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.76365223963038</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.474173082508502</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_positive.xlsx
+++ b/xlsx/country_comparison/convergence_support_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -426,13 +429,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.582407081968796</v>
+        <v>0.610664738740297</v>
       </c>
       <c r="C2" t="n">
         <v>0.667387097439935</v>
@@ -462,9 +468,12 @@
         <v>0.570328202556126</v>
       </c>
       <c r="L2" t="n">
+        <v>0.784057236996414</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.76365223963038</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.474173082508502</v>
       </c>
     </row>

--- a/xlsx/country_comparison/convergence_support_positive.xlsx
+++ b/xlsx/country_comparison/convergence_support_positive.xlsx
@@ -56,8 +56,8 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.610664738740297</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C2" t="n">
         <v>0.667387097439935</v>
@@ -465,16 +465,16 @@
         <v>0.562356534000552</v>
       </c>
       <c r="K2" t="n">
-        <v>0.570328202556126</v>
+        <v>0.570384823995449</v>
       </c>
       <c r="L2" t="n">
-        <v>0.784057236996414</v>
+        <v>0.777916745185535</v>
       </c>
       <c r="M2" t="n">
         <v>0.76365223963038</v>
       </c>
       <c r="N2" t="n">
-        <v>0.474173082508502</v>
+        <v>0.47407392499366</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_positive.xlsx
+++ b/xlsx/country_comparison/convergence_support_positive.xlsx
@@ -438,43 +438,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.667387097439935</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D2" t="n">
-        <v>0.614098661535645</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E2" t="n">
-        <v>0.64464289886157</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.779832428853336</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G2" t="n">
-        <v>0.772095613966801</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.727223696648626</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I2" t="n">
-        <v>0.555343076482827</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J2" t="n">
-        <v>0.562356534000552</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.570384823995449</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.777916745185535</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M2" t="n">
-        <v>0.76365223963038</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N2" t="n">
-        <v>0.47407392499366</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
   </sheetData>
